--- a/gdis_add/emdat_no_loc_all_updated.xlsx
+++ b/gdis_add/emdat_no_loc_all_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapalmer/Documents/GitHub/cyclone-child-marraige/gdis_add/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36957F68-F48B-BA4E-AE29-7EE06213E65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A70525D-E47D-6A47-993D-B846868E9938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30240" yWindow="5040" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6323" uniqueCount="1659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6384" uniqueCount="1659">
   <si>
     <t>Dis No</t>
   </si>
@@ -5351,9 +5351,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ435"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A289" sqref="A289:XFD289"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AZ350" sqref="AZ350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26791,7 +26791,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="289" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1011</v>
       </c>
@@ -26858,8 +26858,11 @@
       <c r="AY289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ289" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="290" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>986</v>
       </c>
@@ -26938,8 +26941,11 @@
       <c r="AY290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ290" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="291" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1015</v>
       </c>
@@ -27027,8 +27033,11 @@
       <c r="AY291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ291" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="292" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1018</v>
       </c>
@@ -27113,8 +27122,11 @@
       <c r="AY292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ292" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="293" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1022</v>
       </c>
@@ -27193,8 +27205,11 @@
       <c r="AY293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ293" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="294" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1025</v>
       </c>
@@ -27273,8 +27288,11 @@
       <c r="AY294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ294" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="295" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1030</v>
       </c>
@@ -27347,8 +27365,11 @@
       <c r="AY295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ295" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="296" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1039</v>
       </c>
@@ -27439,8 +27460,11 @@
       <c r="AY296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ296" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="297" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1043</v>
       </c>
@@ -27531,8 +27555,11 @@
       <c r="AY297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ297" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="298" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>992</v>
       </c>
@@ -27599,8 +27626,11 @@
       <c r="AY298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ298" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="299" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1035</v>
       </c>
@@ -27679,8 +27709,11 @@
       <c r="AY299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ299" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="300" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1048</v>
       </c>
@@ -27759,8 +27792,11 @@
       <c r="AY300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ300" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="301" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1054</v>
       </c>
@@ -27845,8 +27881,11 @@
       <c r="AY301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ301" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="302" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1060</v>
       </c>
@@ -27943,8 +27982,11 @@
       <c r="AY302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ302" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="303" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1068</v>
       </c>
@@ -28023,8 +28065,11 @@
       <c r="AY303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ303" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="304" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1073</v>
       </c>
@@ -28097,8 +28142,11 @@
       <c r="AY304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ304" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="305" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1079</v>
       </c>
@@ -28195,8 +28243,11 @@
       <c r="AY305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ305" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="306" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1087</v>
       </c>
@@ -28275,8 +28326,11 @@
       <c r="AY306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ306" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="307" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1092</v>
       </c>
@@ -28358,8 +28412,11 @@
       <c r="AY307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ307" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="308" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1095</v>
       </c>
@@ -28432,8 +28489,11 @@
       <c r="AY308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ308" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="309" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1105</v>
       </c>
@@ -28506,8 +28566,11 @@
       <c r="AY309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ309" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="310" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1108</v>
       </c>
@@ -28580,8 +28643,11 @@
       <c r="AY310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ310" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="311" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1099</v>
       </c>
@@ -28672,8 +28738,11 @@
       <c r="AY311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ311" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="312" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1114</v>
       </c>
@@ -28755,8 +28824,11 @@
       <c r="AY312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ312" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="313" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1119</v>
       </c>
@@ -28844,8 +28916,11 @@
       <c r="AY313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ313" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="314" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1124</v>
       </c>
@@ -28921,8 +28996,11 @@
       <c r="AY314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ314" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="315" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1128</v>
       </c>
@@ -28995,8 +29073,11 @@
       <c r="AY315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ315" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="316" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1133</v>
       </c>
@@ -29072,8 +29153,11 @@
       <c r="AY316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ316" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="317" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1135</v>
       </c>
@@ -29164,8 +29248,11 @@
       <c r="AY317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ317" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="318" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1141</v>
       </c>
@@ -29238,8 +29325,11 @@
       <c r="AY318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ318" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="319" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1161</v>
       </c>
@@ -29333,8 +29423,11 @@
       <c r="AY319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ319" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="320" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1165</v>
       </c>
@@ -29413,8 +29506,11 @@
       <c r="AY320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ320" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="321" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1166</v>
       </c>
@@ -29490,8 +29586,11 @@
       <c r="AY321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ321" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="322" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1171</v>
       </c>
@@ -29567,8 +29666,11 @@
       <c r="AY322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ322" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="323" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1175</v>
       </c>
@@ -29647,8 +29749,11 @@
       <c r="AY323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ323" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="324" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1181</v>
       </c>
@@ -29721,8 +29826,11 @@
       <c r="AY324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ324" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="325" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1184</v>
       </c>
@@ -29804,8 +29912,11 @@
       <c r="AY325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ325" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="326" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1143</v>
       </c>
@@ -29896,8 +30007,11 @@
       <c r="AY326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ326" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="327" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1188</v>
       </c>
@@ -30000,8 +30114,11 @@
       <c r="AY327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ327" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="328" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1194</v>
       </c>
@@ -30083,8 +30200,11 @@
       <c r="AY328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ328" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="329" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1200</v>
       </c>
@@ -30175,8 +30295,11 @@
       <c r="AY329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ329" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="330" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1149</v>
       </c>
@@ -30267,8 +30390,11 @@
       <c r="AY330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ330" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="331" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1153</v>
       </c>
@@ -30347,8 +30473,11 @@
       <c r="AY331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ331" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="332" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1207</v>
       </c>
@@ -30427,8 +30556,11 @@
       <c r="AY332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ332" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="333" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1210</v>
       </c>
@@ -30531,8 +30663,11 @@
       <c r="AY333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ333" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="334" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1217</v>
       </c>
@@ -30614,8 +30749,11 @@
       <c r="AY334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ334" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="335" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1284</v>
       </c>
@@ -30724,8 +30862,11 @@
       <c r="AY335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ335" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="336" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1291</v>
       </c>
@@ -30807,8 +30948,11 @@
       <c r="AY336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ336" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="337" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1293</v>
       </c>
@@ -30872,8 +31016,11 @@
       <c r="AY337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ337" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="338" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1297</v>
       </c>
@@ -30961,8 +31108,11 @@
       <c r="AY338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ338" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="339" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1301</v>
       </c>
@@ -31056,8 +31206,11 @@
       <c r="AY339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ339" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="340" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1309</v>
       </c>
@@ -31142,8 +31295,11 @@
       <c r="AY340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ340" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="341" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1224</v>
       </c>
@@ -31225,8 +31381,11 @@
       <c r="AY341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ341" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="342" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1228</v>
       </c>
@@ -31314,8 +31473,11 @@
       <c r="AY342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ342" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="343" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1234</v>
       </c>
@@ -31403,8 +31565,11 @@
       <c r="AY343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ343" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="344" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1239</v>
       </c>
@@ -31492,8 +31657,11 @@
       <c r="AY344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ344" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="345" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1240</v>
       </c>
@@ -31563,8 +31731,11 @@
       <c r="AY345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ345" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="346" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1243</v>
       </c>
@@ -31649,8 +31820,11 @@
       <c r="AY346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ346" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="347" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1248</v>
       </c>
@@ -31720,8 +31894,11 @@
       <c r="AY347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ347" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="348" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1254</v>
       </c>
@@ -31797,8 +31974,11 @@
       <c r="AY348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ348" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="349" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1257</v>
       </c>
@@ -31877,8 +32057,11 @@
       <c r="AY349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ349" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="350" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1264</v>
       </c>
@@ -31949,7 +32132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1267</v>
       </c>
@@ -32026,7 +32209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1315</v>
       </c>

--- a/gdis_add/emdat_no_loc_all_updated.xlsx
+++ b/gdis_add/emdat_no_loc_all_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapalmer/Documents/GitHub/cyclone-child-marraige/gdis_add/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A70525D-E47D-6A47-993D-B846868E9938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54B0030-1FCB-3345-9AE6-6F8522D3FB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30240" yWindow="5040" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6384" uniqueCount="1659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6404" uniqueCount="1659">
   <si>
     <t>Dis No</t>
   </si>
@@ -5352,8 +5352,8 @@
   <dimension ref="A1:AZ435"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AZ350" sqref="AZ350"/>
+      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AZ370" sqref="AZ370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32131,6 +32131,9 @@
       <c r="AY350">
         <v>0</v>
       </c>
+      <c r="AZ350" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="351" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
@@ -32208,6 +32211,9 @@
       <c r="AY351">
         <v>0</v>
       </c>
+      <c r="AZ351" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="352" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
@@ -32288,8 +32294,11 @@
       <c r="AY352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ352" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="353" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1320</v>
       </c>
@@ -32368,8 +32377,11 @@
       <c r="AY353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ353" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="354" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1324</v>
       </c>
@@ -32451,8 +32463,11 @@
       <c r="AY354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ354" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="355" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1331</v>
       </c>
@@ -32531,8 +32546,11 @@
       <c r="AY355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ355" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="356" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1336</v>
       </c>
@@ -32608,8 +32626,11 @@
       <c r="AY356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ356" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="357" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>1337</v>
       </c>
@@ -32682,8 +32703,11 @@
       <c r="AY357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ357" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="358" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>1352</v>
       </c>
@@ -32762,8 +32786,11 @@
       <c r="AY358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ358" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="359" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>1360</v>
       </c>
@@ -32854,8 +32881,11 @@
       <c r="AY359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ359" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="360" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>1273</v>
       </c>
@@ -32931,8 +32961,11 @@
       <c r="AY360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ360" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="361" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>1279</v>
       </c>
@@ -33029,8 +33062,11 @@
       <c r="AY361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ361" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="362" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>1338</v>
       </c>
@@ -33124,8 +33160,11 @@
       <c r="AY362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ362" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="363" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>1343</v>
       </c>
@@ -33210,8 +33249,11 @@
       <c r="AY363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ363" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="364" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>1347</v>
       </c>
@@ -33290,8 +33332,11 @@
       <c r="AY364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ364" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="365" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>1366</v>
       </c>
@@ -33391,8 +33436,11 @@
       <c r="AY365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ365" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="366" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>1375</v>
       </c>
@@ -33462,8 +33510,11 @@
       <c r="AY366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ366" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="367" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>1377</v>
       </c>
@@ -33539,8 +33590,11 @@
       <c r="AY367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ367" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="368" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>1378</v>
       </c>
@@ -33622,8 +33676,11 @@
       <c r="AY368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ368" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="369" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>1433</v>
       </c>
@@ -33711,8 +33768,11 @@
       <c r="AY369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ369" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="370" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>1440</v>
       </c>
@@ -33798,7 +33858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>1445</v>
       </c>
@@ -33878,7 +33938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1451</v>
       </c>
@@ -33952,7 +34012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1496</v>
       </c>
@@ -34038,7 +34098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1383</v>
       </c>
@@ -34121,7 +34181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1387</v>
       </c>
@@ -34216,7 +34276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1394</v>
       </c>
@@ -34293,7 +34353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1401</v>
       </c>
@@ -34382,7 +34442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>1405</v>
       </c>
@@ -34471,7 +34531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1407</v>
       </c>
@@ -34545,7 +34605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>1410</v>
       </c>
@@ -34634,7 +34694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1416</v>
       </c>
@@ -34711,7 +34771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1419</v>
       </c>
@@ -34794,7 +34854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1455</v>
       </c>
@@ -34877,7 +34937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1459</v>
       </c>

--- a/gdis_add/emdat_no_loc_all_updated.xlsx
+++ b/gdis_add/emdat_no_loc_all_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapalmer/Documents/GitHub/cyclone-child-marraige/gdis_add/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54B0030-1FCB-3345-9AE6-6F8522D3FB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23C3721-A273-B847-B348-6315D8EEABE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30240" yWindow="5040" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30260" yWindow="5040" windowWidth="30240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6404" uniqueCount="1659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6472" uniqueCount="1659">
   <si>
     <t>Dis No</t>
   </si>
@@ -5352,8 +5352,8 @@
   <dimension ref="A1:AZ435"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AZ370" sqref="AZ370"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6537,6 +6537,9 @@
       <c r="AY15">
         <v>0</v>
       </c>
+      <c r="AZ15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -6621,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>224</v>
       </c>
@@ -6701,7 +6704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>227</v>
       </c>
@@ -6781,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>445</v>
       </c>
@@ -6851,8 +6854,11 @@
       <c r="AY19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -6941,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -7012,7 +7018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -7086,7 +7092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -7148,7 +7154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>230</v>
       </c>
@@ -7207,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>234</v>
       </c>
@@ -7281,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>236</v>
       </c>
@@ -7334,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>240</v>
       </c>
@@ -7393,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>244</v>
       </c>
@@ -7461,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>250</v>
       </c>
@@ -7532,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>252</v>
       </c>
@@ -7600,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>255</v>
       </c>
@@ -7677,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>260</v>
       </c>
@@ -33857,6 +33863,9 @@
       <c r="AY370">
         <v>0</v>
       </c>
+      <c r="AZ370" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="371" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
@@ -33937,6 +33946,9 @@
       <c r="AY371">
         <v>0</v>
       </c>
+      <c r="AZ371" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="372" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
@@ -34011,6 +34023,9 @@
       <c r="AY372">
         <v>0</v>
       </c>
+      <c r="AZ372" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="373" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
@@ -34097,6 +34112,9 @@
       <c r="AY373">
         <v>0</v>
       </c>
+      <c r="AZ373" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="374" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
@@ -34180,6 +34198,9 @@
       <c r="AY374">
         <v>0</v>
       </c>
+      <c r="AZ374" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="375" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
@@ -34275,6 +34296,9 @@
       <c r="AY375">
         <v>0</v>
       </c>
+      <c r="AZ375" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="376" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
@@ -34352,6 +34376,9 @@
       <c r="AY376">
         <v>0</v>
       </c>
+      <c r="AZ376" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="377" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
@@ -34441,6 +34468,9 @@
       <c r="AY377">
         <v>0</v>
       </c>
+      <c r="AZ377" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="378" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
@@ -34530,6 +34560,9 @@
       <c r="AY378">
         <v>0</v>
       </c>
+      <c r="AZ378" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="379" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
@@ -34604,6 +34637,9 @@
       <c r="AY379">
         <v>0</v>
       </c>
+      <c r="AZ379" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="380" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
@@ -34693,6 +34729,9 @@
       <c r="AY380">
         <v>0</v>
       </c>
+      <c r="AZ380" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="381" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
@@ -34770,6 +34809,9 @@
       <c r="AY381">
         <v>0</v>
       </c>
+      <c r="AZ381" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="382" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
@@ -34853,6 +34895,9 @@
       <c r="AY382">
         <v>0</v>
       </c>
+      <c r="AZ382" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="383" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
@@ -34936,6 +34981,9 @@
       <c r="AY383">
         <v>0</v>
       </c>
+      <c r="AZ383" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="384" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
@@ -35013,8 +35061,11 @@
       <c r="AY384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ384" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="385" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>1462</v>
       </c>
@@ -35102,8 +35153,11 @@
       <c r="AY385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ385" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="386" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>1468</v>
       </c>
@@ -35176,8 +35230,11 @@
       <c r="AY386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ386" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="387" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>1473</v>
       </c>
@@ -35253,8 +35310,11 @@
       <c r="AY387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ387" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="388" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>1475</v>
       </c>
@@ -35339,8 +35399,11 @@
       <c r="AY388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ388" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="389" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>1480</v>
       </c>
@@ -35422,8 +35485,11 @@
       <c r="AY389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ389" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="390" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>1483</v>
       </c>
@@ -35499,8 +35565,11 @@
       <c r="AY390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ390" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="391" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>1501</v>
       </c>
@@ -35576,8 +35645,11 @@
       <c r="AY391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ391" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="392" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>1425</v>
       </c>
@@ -35659,8 +35731,11 @@
       <c r="AY392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ392" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="393" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>1429</v>
       </c>
@@ -35736,8 +35811,11 @@
       <c r="AY393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ393" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="394" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>1487</v>
       </c>
@@ -35810,8 +35888,11 @@
       <c r="AY394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ394" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="395" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>1492</v>
       </c>
@@ -35884,8 +35965,11 @@
       <c r="AY395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ395" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="396" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>1505</v>
       </c>
@@ -35970,8 +36054,11 @@
       <c r="AY396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ396" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="397" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>1509</v>
       </c>
@@ -36038,8 +36125,11 @@
       <c r="AY397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ397" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="398" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>1513</v>
       </c>
@@ -36139,8 +36229,11 @@
       <c r="AY398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ398" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="399" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>1552</v>
       </c>
@@ -36216,8 +36309,11 @@
       <c r="AY399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ399" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="400" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>1554</v>
       </c>
@@ -36290,8 +36386,11 @@
       <c r="AY400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ400" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="401" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>1558</v>
       </c>
@@ -36367,8 +36466,11 @@
       <c r="AY401">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ401" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="402" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>1562</v>
       </c>
@@ -36441,8 +36543,11 @@
       <c r="AY402">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ402" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="403" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>1521</v>
       </c>
@@ -36530,8 +36635,11 @@
       <c r="AY403">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ403" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="404" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>1526</v>
       </c>
@@ -36613,8 +36721,11 @@
       <c r="AY404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ404" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="405" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>1529</v>
       </c>
@@ -36693,8 +36804,11 @@
       <c r="AY405">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ405" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="406" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>1533</v>
       </c>
@@ -36779,8 +36893,11 @@
       <c r="AY406">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ406" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="407" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>1537</v>
       </c>
@@ -36862,8 +36979,11 @@
       <c r="AY407">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ407" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="408" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>1567</v>
       </c>
@@ -36954,8 +37074,11 @@
       <c r="AY408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ408" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="409" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>1568</v>
       </c>
@@ -37052,8 +37175,11 @@
       <c r="AY409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ409" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="410" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>1572</v>
       </c>
@@ -37135,8 +37261,11 @@
       <c r="AY410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ410" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="411" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>1577</v>
       </c>
@@ -37218,8 +37347,11 @@
       <c r="AY411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ411" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="412" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>1582</v>
       </c>
@@ -37298,8 +37430,11 @@
       <c r="AY412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ412" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="413" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>1585</v>
       </c>
@@ -37381,8 +37516,11 @@
       <c r="AY413">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ413" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="414" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>1589</v>
       </c>
@@ -37461,8 +37599,11 @@
       <c r="AY414">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ414" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="415" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>1540</v>
       </c>
@@ -37544,8 +37685,11 @@
       <c r="AY415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ415" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="416" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>1543</v>
       </c>
@@ -37627,8 +37771,11 @@
       <c r="AY416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ416" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="417" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>1547</v>
       </c>
@@ -37707,8 +37854,11 @@
       <c r="AY417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ417" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="418" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>1551</v>
       </c>
@@ -37787,8 +37937,11 @@
       <c r="AY418">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ418" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="419" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>1593</v>
       </c>
@@ -37870,8 +38023,11 @@
       <c r="AY419">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ419" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="420" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>1596</v>
       </c>
@@ -37950,8 +38106,11 @@
       <c r="AY420">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ420" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="421" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>1599</v>
       </c>
@@ -38039,8 +38198,11 @@
       <c r="AY421">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ421" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="422" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>1605</v>
       </c>
@@ -38116,8 +38278,11 @@
       <c r="AY422">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ422" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="423" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>1606</v>
       </c>
@@ -38187,8 +38352,11 @@
       <c r="AY423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ423" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="424" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>1611</v>
       </c>
@@ -38273,8 +38441,11 @@
       <c r="AY424">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ424" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="425" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>1615</v>
       </c>
@@ -38353,8 +38524,11 @@
       <c r="AY425">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ425" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="426" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>1616</v>
       </c>
@@ -38436,8 +38610,11 @@
       <c r="AY426">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ426" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="427" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>1619</v>
       </c>
@@ -38519,8 +38696,11 @@
       <c r="AY427">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ427" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="428" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>1622</v>
       </c>
@@ -38593,8 +38773,11 @@
       <c r="AY428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ428" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="429" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>1625</v>
       </c>
@@ -38667,8 +38850,11 @@
       <c r="AY429">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ429" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="430" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>1630</v>
       </c>
@@ -38762,8 +38948,11 @@
       <c r="AY430">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ430" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="431" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>1632</v>
       </c>
@@ -38839,8 +39028,11 @@
       <c r="AY431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ431" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="432" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>1636</v>
       </c>
@@ -38925,8 +39117,11 @@
       <c r="AY432">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ432" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="433" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>1640</v>
       </c>
@@ -39011,8 +39206,11 @@
       <c r="AY433">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ433" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="434" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>1645</v>
       </c>
@@ -39094,8 +39292,11 @@
       <c r="AY434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ434" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="435" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>1648</v>
       </c>
@@ -39179,6 +39380,9 @@
       </c>
       <c r="AY435">
         <v>0</v>
+      </c>
+      <c r="AZ435" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
